--- a/DateBase/orders/Nhat 48_2025-12-17.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-17.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,10 +690,609 @@
       <c r="A31" t="str">
         <v>4</v>
       </c>
+      <c r="C31" t="str">
+        <v>126_绣球苹果绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F31" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>109_绣球国产绿_Hydrangea Colombia Green (local)_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>579_腊梅红_wax red_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>303_彩星 粉_Tinted Gypso pink_undefined_0.5kg</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>485_情人草_Limonium/Misty_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5</v>
+      </c>
+      <c r="C41" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>6</v>
+      </c>
+      <c r="C44" t="str">
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F47" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>7</v>
+      </c>
+      <c r="C48" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>8</v>
+      </c>
+      <c r="C52" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>621_康乃馨桃红_undefined_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>9</v>
+      </c>
+      <c r="C55" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>621_康乃馨桃红_undefined_undefined_20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>10</v>
+      </c>
+      <c r="C63" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F65" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>11</v>
+      </c>
+      <c r="C66" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F70" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>12</v>
+      </c>
+      <c r="C71" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F72" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>515_松虫草紫红_scabiosa red_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>13</v>
+      </c>
+      <c r="C77" t="str">
+        <v>544_空气草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>845_干花紫罗兰_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>14</v>
+      </c>
+      <c r="C79" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>433_红豆_Hypericum red_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>676_洋牡丹玫红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F87" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>1</v>
+      </c>
+      <c r="C89" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F89" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F90" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F91" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>2</v>
+      </c>
+      <c r="C94" t="str">
+        <v>110_绣球浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F94" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F95" t="str">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F96" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F97" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F98" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F99" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>596_橄榄叶_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -751,7 +1350,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011551010252012103858510556555551455105850</v>
+        <v>01155101025201210385851055655555145510585306020151051085313251010203201041510391038414845105831.5215301151381151115518555165510553610101515640501055550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-17.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-17.xlsx
@@ -1289,6 +1289,9 @@
       <c r="C101" t="str">
         <v>596_橄榄叶_undefined_undefined_1bunch</v>
       </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1350,7 +1353,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01155101025201210385851055655555145510585306020151051085313251010203201041510391038414845105831.5215301151381151115518555165510553610101515640501055550</v>
+        <v>01155101025201210385851055655555145510585306020151051085313251010203201041510391038414845105831.5215301151381151115518555165510553610101515640501055555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-17.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-17.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1293,9 +1293,45 @@
         <v>5</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>3</v>
+      </c>
+      <c r="C102" t="str">
+        <v>840_洋牡丹塞纳河_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F104" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>677_洋牡丹大香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F105" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L105"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1353,7 +1389,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01155101025201210385851055655555145510585306020151051085313251010203201041510391038414845105831.5215301151381151115518555165510553610101515640501055555</v>
+        <v>01155101025201210385851055655555145510585306020151051085313251010203201041510391038414845105831.521530115138115111551855516551055361010151564050105555515845</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-17.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-17.xlsx
@@ -1391,6 +1391,9 @@
       <c r="G2" t="str">
         <v>01155101025201210385851055655555145510585306020151051085313251010203201041510391038414845105831.521530115138115111551855516551055361010151564050105555515845</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
